--- a/mbs-perturbation/mega/randomForest/mega-randomForest-results.xlsx
+++ b/mbs-perturbation/mega/randomForest/mega-randomForest-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9791666666666666</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7519999999999999</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8635752688172043</v>
+        <v>0.8541554599246907</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.5411764705882354</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8138440860215055</v>
+        <v>0.7494620763851533</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3125</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.9111111111111112</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8865990990990991</v>
+        <v>0.9556901059584421</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3789473684210526</v>
+        <v>0.3137254901960785</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4910775566231984</v>
+        <v>0.7794137883583322</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0851063829787234</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1538461538461538</v>
+        <v>0.59375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5232212308396248</v>
+        <v>0.9240401816430439</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6451656963725929</v>
+        <v>0.7819013022956978</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4436170212765957</v>
+        <v>0.6208245243128964</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4569587044534413</v>
+        <v>0.6174071598336306</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7156634482801264</v>
+        <v>0.8525523224539324</v>
       </c>
     </row>
   </sheetData>
